--- a/model/compared_results/solar_flare_m0_result/solar_flare_m0_results.xlsx
+++ b/model/compared_results/solar_flare_m0_result/solar_flare_m0_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7905</v>
+        <v>0.8179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6165</v>
+        <v>0.6308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7994</v>
+        <v>0.8274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5508</v>
+        <v>0.574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6968</v>
+        <v>0.7153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7887999999999999</v>
+        <v>0.795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.187</v>
+        <v>0.2051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5569</v>
+        <v>0.569</v>
       </c>
       <c r="J2" t="n">
-        <v>0.708</v>
+        <v>0.7291</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6559</v>
+        <v>0.6861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5451</v>
+        <v>0.6319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6617</v>
+        <v>0.6889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4597</v>
+        <v>0.4863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.6565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6736</v>
+        <v>0.6941000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1357</v>
+        <v>0.1665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5234</v>
+        <v>0.5352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6034</v>
+        <v>0.6604</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7711</v>
+        <v>0.7588</v>
       </c>
       <c r="C4" t="n">
         <v>0.6768999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7759</v>
+        <v>0.7631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5436</v>
+        <v>0.5351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7183</v>
+        <v>0.7121</v>
       </c>
       <c r="G4" t="n">
         <v>0.7873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1837</v>
+        <v>0.2029</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5564</v>
+        <v>0.5531</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7264</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7365</v>
+        <v>0.7271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6462</v>
+        <v>0.6176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7411</v>
+        <v>0.7328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5184</v>
+        <v>0.5092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6907</v>
+        <v>0.672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7652</v>
+        <v>0.7607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2341</v>
+        <v>0.2275</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5455</v>
+        <v>0.5405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6936</v>
+        <v>0.6752</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6804</v>
+        <v>0.7141999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5714</v>
+        <v>0.589</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6858</v>
+        <v>0.7207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4681</v>
+        <v>0.4975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5837</v>
+        <v>0.6462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6664</v>
+        <v>0.7117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1218</v>
+        <v>0.215</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5276999999999999</v>
+        <v>0.5352</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6286</v>
+        <v>0.6549</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.694</v>
+        <v>0.6983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7945</v>
+        <v>0.7934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6889</v>
+        <v>0.6934</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5062</v>
+        <v>0.5091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7374000000000001</v>
+        <v>0.7393</v>
       </c>
       <c r="G7" t="n">
-        <v>0.802</v>
+        <v>0.8102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1891</v>
+        <v>0.2305</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5506</v>
+        <v>0.5514</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7417</v>
+        <v>0.7433999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,210 @@
       </c>
       <c r="J10" t="n">
         <v>0.6448</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7272</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1741</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6399</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5497</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8877</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9152</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5805</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5416</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7582</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2195</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8863</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2484</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5554</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4697</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5837</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6702</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6824</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9172</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1747</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9553</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5587</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7439</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1371</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5571</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KmeansSMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3088</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9273</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5794</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5153</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7565</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2266</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5695</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6181</v>
       </c>
     </row>
   </sheetData>
